--- a/Documentacion/DICCIONARIO DE DATOS.xlsx
+++ b/Documentacion/DICCIONARIO DE DATOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Daniel CC\Desktop\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Daniel CC\Documents\GitHub\hades\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -74,9 +74,6 @@
     <t>STATUS_ID</t>
   </si>
   <si>
-    <t>SALAS_ID</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>int y clave foranea porque se almacenara el nombre de la funeraria de donde viene</t>
   </si>
   <si>
-    <t>int y clave foranea porque se almacenara las salas de las capillas</t>
-  </si>
-  <si>
     <t>int porque se guardara un numero autoincrementable y unico</t>
   </si>
   <si>
@@ -239,18 +233,9 @@
     <t>int y clave foranea porque se almacenara el statu de el servicio</t>
   </si>
   <si>
-    <t>CAPILLA_ID</t>
-  </si>
-  <si>
     <t>int y clave foranera porque se almacenar y se mostrara en que capilla se realizara el servicio y en que sala</t>
   </si>
   <si>
-    <t>INVENTARIO_SALA_ID</t>
-  </si>
-  <si>
-    <t>int y clave foranea porque se almacenara y se dara de alta el inventario de las cosas que contiene la sala</t>
-  </si>
-  <si>
     <t>ACTIVO</t>
   </si>
   <si>
@@ -386,24 +371,9 @@
     <t>PORQUE SE GUARDARA CUANTOS INMUEBLES HAY  EN EXISTENCIA DENTRO DE ESA SALA</t>
   </si>
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>CANT_EXISTENCIA</t>
   </si>
   <si>
-    <t>INMUEBLE_SALA_ID</t>
-  </si>
-  <si>
-    <t>INMUEBLE_SALA_INVENTARIO_SALA</t>
-  </si>
-  <si>
-    <t>CLAVE FORANEA PORQUE OBTENDRAN LOS DATOS DE LA TABLE INMUEBLE_SALA</t>
-  </si>
-  <si>
-    <t>CLAVE FORANEA PORQUE OBTENDRAN LOS DATOS DE LA TABLE INVENTARIO_SALA</t>
-  </si>
-  <si>
     <t>POR QUE SE GUARDARA UN NUMERO UNICO Y AUTOINCREMENTABLE</t>
   </si>
   <si>
@@ -438,6 +408,39 @@
   </si>
   <si>
     <t>SE GUARDARA EL APELLIDO MATERNO DE LA PERSONA</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int y clave foranea por que se almacenara el nombre del usuario</t>
+  </si>
+  <si>
+    <t>Sala_ID</t>
+  </si>
+  <si>
+    <t>capilla_ID</t>
+  </si>
+  <si>
+    <t>int y clave foranea porque se mostara la capilla en donde esta la sala</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>INMUEBLE_SALA</t>
+  </si>
+  <si>
+    <t>INT Y CLAVE FORANEA PORQUE SE VA ALMACENAR LOS INMUEBLES DE LA SALA</t>
+  </si>
+  <si>
+    <t>SALA_ID</t>
+  </si>
+  <si>
+    <t>CLAVE FORANEA PORQUE SE MOSTRARA EN QUE SALAN SE ENCUENTRAN LOS INMUEBLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT Y CLAVE FORANEA PORQUE SE ASIGNARA A LA PERSONA UN NUMERO </t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -753,19 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -773,6 +763,15 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,13 +1075,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1110,10 +1109,10 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1125,10 +1124,10 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1142,10 +1141,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1159,512 +1158,512 @@
         <v>16</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
-        <v>45</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>62</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8">
+        <v>45</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8">
         <v>150</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="27" t="s">
-        <v>64</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="B21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6">
-        <v>100</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="28" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>100</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="28" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="29" t="s">
+      <c r="B28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7">
+        <v>50</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="7">
-        <v>50</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="29" t="s">
-        <v>77</v>
-      </c>
       <c r="E29" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="14"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>86</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="10">
-        <v>100</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="C35" s="10">
+        <v>100</v>
+      </c>
       <c r="D35" s="30" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="36" t="s">
-        <v>53</v>
+      <c r="D36" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="31" t="s">
+      <c r="B40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="11">
+        <v>100</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="11">
-        <v>100</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="31" t="s">
-        <v>52</v>
-      </c>
       <c r="E41" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1697,32 +1696,32 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
@@ -1731,15 +1730,15 @@
         <v>150</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -1748,25 +1747,25 @@
         <v>100</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,15 +1784,15 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>5</v>
@@ -1802,15 +1801,15 @@
         <v>100</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>5</v>
@@ -1819,15 +1818,15 @@
         <v>150</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>5</v>
@@ -1836,10 +1835,10 @@
         <v>10</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,15 +1857,15 @@
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="38" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" s="37" t="s">
         <v>5</v>
@@ -1875,40 +1874,40 @@
         <v>50</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="38" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="40" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,59 +1926,59 @@
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C63" s="6">
         <v>6</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C64" s="6">
         <v>6</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1998,40 +1997,40 @@
       </c>
       <c r="C67" s="41"/>
       <c r="D67" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="41" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B68" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="41"/>
       <c r="D68" s="41" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B69" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="41"/>
       <c r="D69" s="41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,40 +2049,40 @@
       </c>
       <c r="C71" s="47"/>
       <c r="D71" s="46" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B72" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="47"/>
       <c r="D72" s="46" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="46" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C73" s="47"/>
       <c r="D73" s="46" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,15 +2101,15 @@
       </c>
       <c r="C75" s="44"/>
       <c r="D75" s="43" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" s="43" t="s">
         <v>5</v>
@@ -2119,238 +2118,238 @@
         <v>200</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>117</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="44"/>
+      <c r="D77" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="12">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C79" s="12"/>
       <c r="D79" s="32" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="12">
+        <v>6</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="51"/>
+      <c r="D85" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E85" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="51">
+        <v>10</v>
+      </c>
+      <c r="D86" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="51">
+        <v>10</v>
+      </c>
+      <c r="D87" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="32" t="s">
+      <c r="E87" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="49" t="s">
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="51"/>
+      <c r="D88" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E88" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="49"/>
-      <c r="D82" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" s="50" t="s">
+      <c r="B90" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="49"/>
+      <c r="D90" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="49">
+        <v>40</v>
+      </c>
+      <c r="D91" s="50" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
+      <c r="E91" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="49"/>
-      <c r="D83" s="50" t="s">
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E83" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B84" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="50" t="s">
+      <c r="B92" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="49">
+        <v>40</v>
+      </c>
+      <c r="D92" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E84" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-    </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="57" t="s">
+      <c r="E92" s="50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="E86" s="57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="56" t="s">
+      <c r="B93" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="49">
+        <v>40</v>
+      </c>
+      <c r="D93" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="56">
-        <v>10</v>
-      </c>
-      <c r="D87" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B88" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="56">
-        <v>10</v>
-      </c>
-      <c r="D88" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E88" s="57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="54"/>
-      <c r="D90" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E90" s="55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B91" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" s="54">
-        <v>40</v>
-      </c>
-      <c r="D91" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" s="55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="B92" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="54">
-        <v>40</v>
-      </c>
-      <c r="D92" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" s="55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="54">
-        <v>40</v>
-      </c>
-      <c r="D93" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="E93" s="55" t="s">
-        <v>132</v>
+      <c r="E93" s="50" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
